--- a/src/test/resources/IndicToIndicTransliterationTests/HindiToGujaratiTest.xlsx
+++ b/src/test/resources/IndicToIndicTransliterationTests/HindiToGujaratiTest.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="nukta " sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="397">
   <si>
     <t>aadhaar</t>
   </si>
@@ -84,9 +84,6 @@
     <t>TargetLanguage</t>
   </si>
   <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>आपने ऑनलाइन भुगतान द्वारा भुगतान किया है. आपकी पेमेंट सफल रही.</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>कंलंक</t>
   </si>
   <si>
-    <t>Langword</t>
-  </si>
-  <si>
     <t>gujarati</t>
   </si>
   <si>
@@ -679,6 +673,540 @@
   </si>
   <si>
     <t>કન્લન્ક</t>
+  </si>
+  <si>
+    <t>Sourcetext</t>
+  </si>
+  <si>
+    <t>Expected_TargetText</t>
+  </si>
+  <si>
+    <t>नुक़्ता</t>
+  </si>
+  <si>
+    <t>ख़ुदा</t>
+  </si>
+  <si>
+    <t>गज़</t>
+  </si>
+  <si>
+    <t>कमज़ोर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">तूफ़ान </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ज़रूर  </t>
+  </si>
+  <si>
+    <t>इस्तीफ़ा</t>
+  </si>
+  <si>
+    <t>ज़ुल्म</t>
+  </si>
+  <si>
+    <t>फ़तवा</t>
+  </si>
+  <si>
+    <t>मज़दूर</t>
+  </si>
+  <si>
+    <t>ताज़ा</t>
+  </si>
+  <si>
+    <t>फ़कीर</t>
+  </si>
+  <si>
+    <t>फ़रमान</t>
+  </si>
+  <si>
+    <t>इज़्ज़त</t>
+  </si>
+  <si>
+    <t>क़मर</t>
+  </si>
+  <si>
+    <t>क़िताब</t>
+  </si>
+  <si>
+    <t>ख़सरा</t>
+  </si>
+  <si>
+    <t>ग़ुल</t>
+  </si>
+  <si>
+    <t>राज़</t>
+  </si>
+  <si>
+    <t>ज़रा</t>
+  </si>
+  <si>
+    <t>तेज़</t>
+  </si>
+  <si>
+    <t>हैज़ा</t>
+  </si>
+  <si>
+    <t>बाग़</t>
+  </si>
+  <si>
+    <t>फ़र्ज़</t>
+  </si>
+  <si>
+    <t>ज़ेवर</t>
+  </si>
+  <si>
+    <t>ज़ोर</t>
+  </si>
+  <si>
+    <t>फ़्रेंच</t>
+  </si>
+  <si>
+    <t>जि़ंदगी</t>
+  </si>
+  <si>
+    <t>दर्ज़ा</t>
+  </si>
+  <si>
+    <t>बाज़ार</t>
+  </si>
+  <si>
+    <t>तरफ़</t>
+  </si>
+  <si>
+    <t>ज़माना</t>
+  </si>
+  <si>
+    <t>ख़रबूज़े</t>
+  </si>
+  <si>
+    <t>ज़िन्दा</t>
+  </si>
+  <si>
+    <t>बरफ़</t>
+  </si>
+  <si>
+    <t>बर्फ़</t>
+  </si>
+  <si>
+    <t>काफ़ी</t>
+  </si>
+  <si>
+    <t>सब्ज़ियों</t>
+  </si>
+  <si>
+    <t>मेहमाननवाज़ी</t>
+  </si>
+  <si>
+    <t>ज़िक्र</t>
+  </si>
+  <si>
+    <t>शराफ़त</t>
+  </si>
+  <si>
+    <t>गुज़र</t>
+  </si>
+  <si>
+    <t>उफ़</t>
+  </si>
+  <si>
+    <t>अफ़सर</t>
+  </si>
+  <si>
+    <t>दफ़्तर</t>
+  </si>
+  <si>
+    <t>प्रोफ़ेसर</t>
+  </si>
+  <si>
+    <t>गुज़रने</t>
+  </si>
+  <si>
+    <t>परहेज़</t>
+  </si>
+  <si>
+    <t>चीज़ें</t>
+  </si>
+  <si>
+    <t>पुर्ज़े</t>
+  </si>
+  <si>
+    <t>फ़ायदा</t>
+  </si>
+  <si>
+    <t>मज़हबी</t>
+  </si>
+  <si>
+    <t>ऐतराज़</t>
+  </si>
+  <si>
+    <t>नमाज़</t>
+  </si>
+  <si>
+    <t>आज़ाद</t>
+  </si>
+  <si>
+    <t>रोज़े</t>
+  </si>
+  <si>
+    <t>गिरफ़्तार</t>
+  </si>
+  <si>
+    <t>रोज़</t>
+  </si>
+  <si>
+    <t>फौजी</t>
+  </si>
+  <si>
+    <t>ज़ुल्मों</t>
+  </si>
+  <si>
+    <t>हफ़्ते</t>
+  </si>
+  <si>
+    <t>ज़रूरत</t>
+  </si>
+  <si>
+    <t>सफ़ेद</t>
+  </si>
+  <si>
+    <t>ताज़े</t>
+  </si>
+  <si>
+    <t>हज़ारों</t>
+  </si>
+  <si>
+    <t>फ़न</t>
+  </si>
+  <si>
+    <t>Nukta word list</t>
+  </si>
+  <si>
+    <t>ज़मीन</t>
+  </si>
+  <si>
+    <t>फ़ीस</t>
+  </si>
+  <si>
+    <t>साफ़</t>
+  </si>
+  <si>
+    <t>सब्ज़ी</t>
+  </si>
+  <si>
+    <t>क़लम</t>
+  </si>
+  <si>
+    <t>क़िला</t>
+  </si>
+  <si>
+    <t>दाग़</t>
+  </si>
+  <si>
+    <t>हाइफ़न</t>
+  </si>
+  <si>
+    <t>क़ुल</t>
+  </si>
+  <si>
+    <t>क़द</t>
+  </si>
+  <si>
+    <t>क़रार</t>
+  </si>
+  <si>
+    <t>क़ौल</t>
+  </si>
+  <si>
+    <t>क़ालीन</t>
+  </si>
+  <si>
+    <t>क़तरा</t>
+  </si>
+  <si>
+    <t>ख़र</t>
+  </si>
+  <si>
+    <t>ख़ाना</t>
+  </si>
+  <si>
+    <t>ख़ार</t>
+  </si>
+  <si>
+    <t>ग़ल्ला</t>
+  </si>
+  <si>
+    <t>ग़रज़</t>
+  </si>
+  <si>
+    <t>ग़ोल</t>
+  </si>
+  <si>
+    <t>ग़ौर</t>
+  </si>
+  <si>
+    <t>ग़श</t>
+  </si>
+  <si>
+    <t>ग़ुंदः</t>
+  </si>
+  <si>
+    <t>ज़िला</t>
+  </si>
+  <si>
+    <t>ज़ीना</t>
+  </si>
+  <si>
+    <t>ज़ंग</t>
+  </si>
+  <si>
+    <t>ज़ंगी</t>
+  </si>
+  <si>
+    <t>ज़िरह</t>
+  </si>
+  <si>
+    <t>ज़री</t>
+  </si>
+  <si>
+    <t>ज़रब</t>
+  </si>
+  <si>
+    <t>ज़लाल</t>
+  </si>
+  <si>
+    <t>ज़लील</t>
+  </si>
+  <si>
+    <t>ज़ार</t>
+  </si>
+  <si>
+    <t>ज़ारी</t>
+  </si>
+  <si>
+    <t>ज़िनाँ</t>
+  </si>
+  <si>
+    <t>ज़ौक़</t>
+  </si>
+  <si>
+    <t>जौक़</t>
+  </si>
+  <si>
+    <t>ज़न</t>
+  </si>
+  <si>
+    <t>ताक़</t>
+  </si>
+  <si>
+    <t>ताज़</t>
+  </si>
+  <si>
+    <t>दर्ज़</t>
+  </si>
+  <si>
+    <t>दफ़ा</t>
+  </si>
+  <si>
+    <t>फ़लक</t>
+  </si>
+  <si>
+    <t>मज़ीद</t>
+  </si>
+  <si>
+    <t>बेबाक़</t>
+  </si>
+  <si>
+    <t>हज़</t>
+  </si>
+  <si>
+    <t>हक़</t>
+  </si>
+  <si>
+    <t>हज़्म</t>
+  </si>
+  <si>
+    <t>हाज़िर</t>
+  </si>
+  <si>
+    <t>चाक़</t>
+  </si>
+  <si>
+    <t>उरूज़</t>
+  </si>
+  <si>
+    <t>अक़्सर</t>
+  </si>
+  <si>
+    <t>आज़म</t>
+  </si>
+  <si>
+    <t>अर्ज़</t>
+  </si>
+  <si>
+    <t>अक़्ल</t>
+  </si>
+  <si>
+    <t>अज़ब</t>
+  </si>
+  <si>
+    <t>सज़ा</t>
+  </si>
+  <si>
+    <t>सिक़्क़ा</t>
+  </si>
+  <si>
+    <t>वज़ाहत</t>
+  </si>
+  <si>
+    <t>वज़ा</t>
+  </si>
+  <si>
+    <t>मुक़र्रर</t>
+  </si>
+  <si>
+    <t>मुक़द्दर</t>
+  </si>
+  <si>
+    <t>माक़ूल</t>
+  </si>
+  <si>
+    <t>मश्क़</t>
+  </si>
+  <si>
+    <t>फ़ातिहा</t>
+  </si>
+  <si>
+    <t>तक़दीर</t>
+  </si>
+  <si>
+    <t>इक़रार</t>
+  </si>
+  <si>
+    <t>ज़ाहिर</t>
+  </si>
+  <si>
+    <t>तरोताज़ा</t>
+  </si>
+  <si>
+    <t>फ़ालतू</t>
+  </si>
+  <si>
+    <t>ज़्यादा</t>
+  </si>
+  <si>
+    <t>चीज़</t>
+  </si>
+  <si>
+    <t>ख़ूबसूरती</t>
+  </si>
+  <si>
+    <t>मक़्क़ा</t>
+  </si>
+  <si>
+    <t>क़ानून</t>
+  </si>
+  <si>
+    <t>बारीक़</t>
+  </si>
+  <si>
+    <t>भेड़ों</t>
+  </si>
+  <si>
+    <t>क़ाज़ी</t>
+  </si>
+  <si>
+    <t>क़ायदा</t>
+  </si>
+  <si>
+    <t>क़ैसर</t>
+  </si>
+  <si>
+    <t>तारिक़</t>
+  </si>
+  <si>
+    <t>सक़लैन</t>
+  </si>
+  <si>
+    <t>क़ुतुब</t>
+  </si>
+  <si>
+    <t>इराक़</t>
+  </si>
+  <si>
+    <t>ख़ान</t>
+  </si>
+  <si>
+    <t>अख़्तर</t>
+  </si>
+  <si>
+    <t>बख़्त</t>
+  </si>
+  <si>
+    <t>ख़ुशबू</t>
+  </si>
+  <si>
+    <t>ख़ादिम</t>
+  </si>
+  <si>
+    <t>ग़ुलाम</t>
+  </si>
+  <si>
+    <t>ग़ज़नफ़र</t>
+  </si>
+  <si>
+    <t>ग़ौस</t>
+  </si>
+  <si>
+    <t>ग़ालिब</t>
+  </si>
+  <si>
+    <t>ग़ज़ाला</t>
+  </si>
+  <si>
+    <t>ग़ज़ल</t>
+  </si>
+  <si>
+    <t>सग़ीर</t>
+  </si>
+  <si>
+    <t>असग़र</t>
+  </si>
+  <si>
+    <t>ज़ैन</t>
+  </si>
+  <si>
+    <t>ज़ोहरा</t>
+  </si>
+  <si>
+    <t>ज़ुल्फ़िक़ार</t>
+  </si>
+  <si>
+    <t>हज़रत</t>
+  </si>
+  <si>
+    <t>अज़हर</t>
+  </si>
+  <si>
+    <t>मुज़फ़्फ़र.</t>
+  </si>
+  <si>
+    <t>अफ़रोज़</t>
+  </si>
+  <si>
+    <t>फ़िरदौस</t>
+  </si>
+  <si>
+    <t>फ़सीह</t>
+  </si>
+  <si>
+    <t>फ़ैसल</t>
+  </si>
+  <si>
+    <t>फ़ैज़ल</t>
+  </si>
+  <si>
+    <t>तुफ़ैल लिखा जायेगा</t>
   </si>
 </sst>
 </file>
@@ -689,7 +1217,7 @@
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
     <numFmt numFmtId="165" formatCode="[$-7000447]0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,16 +1232,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454743"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454743"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF5F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -721,11 +1304,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFA6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFA6A6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFA6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFA6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -735,6 +1363,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E135" activeCellId="1" sqref="A123 E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,237 +1694,237 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -1286,1838 +1932,4288 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" t="s">
         <v>154</v>
-      </c>
-      <c r="B80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" t="s">
-        <v>216</v>
-      </c>
-      <c r="E80" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>162</v>
+      <c r="A86" s="2">
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E86" t="s">
-        <v>163</v>
+        <v>214</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>164</v>
+      <c r="A87" s="2">
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
-      </c>
-      <c r="E87" t="s">
-        <v>165</v>
+        <v>214</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>166</v>
+      <c r="A88" s="2">
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
-      </c>
-      <c r="E88" t="s">
-        <v>167</v>
+        <v>214</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>168</v>
+      <c r="A89" s="2">
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
-      </c>
-      <c r="E89" t="s">
-        <v>169</v>
+        <v>214</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E93" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E94" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E95" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="2">
-        <v>6</v>
+      <c r="A96" t="s">
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
-      </c>
-      <c r="E96" s="1">
-        <v>6</v>
+        <v>214</v>
+      </c>
+      <c r="E96" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="2">
-        <v>7</v>
+      <c r="A97" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
-      </c>
-      <c r="E97" s="1">
-        <v>7</v>
+        <v>214</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="2">
-        <v>8</v>
+      <c r="A98" t="s">
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
-      </c>
-      <c r="E98" s="1">
-        <v>8</v>
+        <v>214</v>
+      </c>
+      <c r="E98" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="2">
-        <v>9</v>
+      <c r="A99" t="s">
+        <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
-      </c>
-      <c r="E99" s="1">
-        <v>9</v>
+        <v>214</v>
+      </c>
+      <c r="E99" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="3" t="s">
-        <v>214</v>
+      <c r="A101" t="s">
+        <v>175</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E103" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E104" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E106" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E107" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E108" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E110" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E111" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E112" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E114" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E115" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E116" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E119" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E120" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E121" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
-      </c>
-      <c r="E122" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.5">
+      <c r="A123" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.5">
+      <c r="A124" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16.5">
+      <c r="A125" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>250</v>
+      </c>
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>251</v>
+      </c>
+      <c r="B153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>252</v>
+      </c>
+      <c r="B154" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>253</v>
+      </c>
+      <c r="B155" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>256</v>
+      </c>
+      <c r="B158" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>257</v>
+      </c>
+      <c r="B159" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>258</v>
+      </c>
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>259</v>
+      </c>
+      <c r="B161" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>260</v>
+      </c>
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163" t="s">
+        <v>35</v>
+      </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>262</v>
+      </c>
+      <c r="B164" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>263</v>
+      </c>
+      <c r="B165" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>264</v>
+      </c>
+      <c r="B166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>265</v>
+      </c>
+      <c r="B167" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>266</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>267</v>
+      </c>
+      <c r="B169" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>268</v>
+      </c>
+      <c r="B170" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>269</v>
+      </c>
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>271</v>
+      </c>
+      <c r="B173" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>273</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>274</v>
+      </c>
+      <c r="B176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>275</v>
+      </c>
+      <c r="B177" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>276</v>
+      </c>
+      <c r="B178" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>277</v>
+      </c>
+      <c r="B179" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>279</v>
+      </c>
+      <c r="B181" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>280</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>281</v>
+      </c>
+      <c r="B183" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>282</v>
+      </c>
+      <c r="B184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>283</v>
+      </c>
+      <c r="B185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>284</v>
+      </c>
+      <c r="B186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>285</v>
+      </c>
+      <c r="B187" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75">
+      <c r="A188" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B188" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75">
+      <c r="A189" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B190" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B194" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" t="s">
+        <v>35</v>
+      </c>
+      <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" t="s">
+        <v>35</v>
+      </c>
+      <c r="C198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B199" t="s">
+        <v>35</v>
+      </c>
+      <c r="C199" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B202" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" t="s">
+        <v>34</v>
+      </c>
+      <c r="D202" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B203" t="s">
+        <v>35</v>
+      </c>
+      <c r="C203" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B204" t="s">
+        <v>35</v>
+      </c>
+      <c r="C204" t="s">
+        <v>34</v>
+      </c>
+      <c r="D204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" t="s">
+        <v>35</v>
+      </c>
+      <c r="C205" t="s">
+        <v>34</v>
+      </c>
+      <c r="D205" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B206" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206" t="s">
+        <v>34</v>
+      </c>
+      <c r="D206" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B207" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" t="s">
+        <v>34</v>
+      </c>
+      <c r="D207" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B208" t="s">
+        <v>35</v>
+      </c>
+      <c r="C208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B209" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B210" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211" t="s">
+        <v>35</v>
+      </c>
+      <c r="C211" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B212" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B213" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" t="s">
+        <v>34</v>
+      </c>
+      <c r="D213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B214" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" t="s">
+        <v>34</v>
+      </c>
+      <c r="D214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B215" t="s">
+        <v>35</v>
+      </c>
+      <c r="C215" t="s">
+        <v>34</v>
+      </c>
+      <c r="D215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B217" t="s">
+        <v>35</v>
+      </c>
+      <c r="C217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B218" t="s">
+        <v>35</v>
+      </c>
+      <c r="C218" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B219" t="s">
+        <v>35</v>
+      </c>
+      <c r="C219" t="s">
+        <v>34</v>
+      </c>
+      <c r="D219" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B220" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B221" t="s">
+        <v>35</v>
+      </c>
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B222" t="s">
+        <v>35</v>
+      </c>
+      <c r="C222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B225" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" t="s">
+        <v>34</v>
+      </c>
+      <c r="D225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B226" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B227" t="s">
+        <v>35</v>
+      </c>
+      <c r="C227" t="s">
+        <v>34</v>
+      </c>
+      <c r="D227" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B228" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" t="s">
+        <v>34</v>
+      </c>
+      <c r="D228" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B229" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B230" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230" t="s">
+        <v>34</v>
+      </c>
+      <c r="D230" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B231" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B232" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" t="s">
+        <v>34</v>
+      </c>
+      <c r="D232" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B233" t="s">
+        <v>35</v>
+      </c>
+      <c r="C233" t="s">
+        <v>34</v>
+      </c>
+      <c r="D233" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B234" t="s">
+        <v>35</v>
+      </c>
+      <c r="C234" t="s">
+        <v>34</v>
+      </c>
+      <c r="D234" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B235" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B236" t="s">
+        <v>35</v>
+      </c>
+      <c r="C236" t="s">
+        <v>34</v>
+      </c>
+      <c r="D236" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B237" t="s">
+        <v>35</v>
+      </c>
+      <c r="C237" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B238" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" t="s">
+        <v>34</v>
+      </c>
+      <c r="D238" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B239" t="s">
+        <v>35</v>
+      </c>
+      <c r="C239" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B240" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B241" t="s">
+        <v>35</v>
+      </c>
+      <c r="C241" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B242" t="s">
+        <v>35</v>
+      </c>
+      <c r="C242" t="s">
+        <v>34</v>
+      </c>
+      <c r="D242" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B243" t="s">
+        <v>35</v>
+      </c>
+      <c r="C243" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B244" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" t="s">
+        <v>34</v>
+      </c>
+      <c r="D244" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B245" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B246" t="s">
+        <v>35</v>
+      </c>
+      <c r="C246" t="s">
+        <v>34</v>
+      </c>
+      <c r="D246" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B247" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" t="s">
+        <v>34</v>
+      </c>
+      <c r="D247" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B248" t="s">
+        <v>35</v>
+      </c>
+      <c r="C248" t="s">
+        <v>34</v>
+      </c>
+      <c r="D248" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B249" t="s">
+        <v>35</v>
+      </c>
+      <c r="C249" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B250" t="s">
+        <v>35</v>
+      </c>
+      <c r="C250" t="s">
+        <v>34</v>
+      </c>
+      <c r="D250" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B251" t="s">
+        <v>35</v>
+      </c>
+      <c r="C251" t="s">
+        <v>34</v>
+      </c>
+      <c r="D251" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B252" t="s">
+        <v>35</v>
+      </c>
+      <c r="C252" t="s">
+        <v>34</v>
+      </c>
+      <c r="D252" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B253" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B254" t="s">
+        <v>35</v>
+      </c>
+      <c r="C254" t="s">
+        <v>34</v>
+      </c>
+      <c r="D254" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B255" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B256" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" t="s">
+        <v>34</v>
+      </c>
+      <c r="D256" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B257" t="s">
+        <v>35</v>
+      </c>
+      <c r="C257" t="s">
+        <v>34</v>
+      </c>
+      <c r="D257" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B258" t="s">
+        <v>35</v>
+      </c>
+      <c r="C258" t="s">
+        <v>34</v>
+      </c>
+      <c r="D258" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B259" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" t="s">
+        <v>34</v>
+      </c>
+      <c r="D259" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B260" t="s">
+        <v>35</v>
+      </c>
+      <c r="C260" t="s">
+        <v>34</v>
+      </c>
+      <c r="D260" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B261" t="s">
+        <v>35</v>
+      </c>
+      <c r="C261" t="s">
+        <v>34</v>
+      </c>
+      <c r="D261" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B262" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B263" t="s">
+        <v>35</v>
+      </c>
+      <c r="C263" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B264" t="s">
+        <v>35</v>
+      </c>
+      <c r="C264" t="s">
+        <v>34</v>
+      </c>
+      <c r="D264" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B265" t="s">
+        <v>35</v>
+      </c>
+      <c r="C265" t="s">
+        <v>34</v>
+      </c>
+      <c r="D265" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B266" t="s">
+        <v>35</v>
+      </c>
+      <c r="C266" t="s">
+        <v>34</v>
+      </c>
+      <c r="D266" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B267" t="s">
+        <v>35</v>
+      </c>
+      <c r="C267" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B268" t="s">
+        <v>35</v>
+      </c>
+      <c r="C268" t="s">
+        <v>34</v>
+      </c>
+      <c r="D268" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B269" t="s">
+        <v>35</v>
+      </c>
+      <c r="C269" t="s">
+        <v>34</v>
+      </c>
+      <c r="D269" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B270" t="s">
+        <v>35</v>
+      </c>
+      <c r="C270" t="s">
+        <v>34</v>
+      </c>
+      <c r="D270" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B271" t="s">
+        <v>35</v>
+      </c>
+      <c r="C271" t="s">
+        <v>34</v>
+      </c>
+      <c r="D271" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B272" t="s">
+        <v>35</v>
+      </c>
+      <c r="C272" t="s">
+        <v>34</v>
+      </c>
+      <c r="D272" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B273" t="s">
+        <v>35</v>
+      </c>
+      <c r="C273" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B274" t="s">
+        <v>35</v>
+      </c>
+      <c r="C274" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B275" t="s">
+        <v>35</v>
+      </c>
+      <c r="C275" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B276" t="s">
+        <v>35</v>
+      </c>
+      <c r="C276" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B277" t="s">
+        <v>35</v>
+      </c>
+      <c r="C277" t="s">
+        <v>34</v>
+      </c>
+      <c r="D277" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B278" t="s">
+        <v>35</v>
+      </c>
+      <c r="C278" t="s">
+        <v>34</v>
+      </c>
+      <c r="D278" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B279" t="s">
+        <v>35</v>
+      </c>
+      <c r="C279" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B280" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B281" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" t="s">
+        <v>34</v>
+      </c>
+      <c r="D281" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B282" t="s">
+        <v>35</v>
+      </c>
+      <c r="C282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D282" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B283" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" t="s">
+        <v>34</v>
+      </c>
+      <c r="D283" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B284" t="s">
+        <v>35</v>
+      </c>
+      <c r="C284" t="s">
+        <v>34</v>
+      </c>
+      <c r="D284" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B285" t="s">
+        <v>35</v>
+      </c>
+      <c r="C285" t="s">
+        <v>34</v>
+      </c>
+      <c r="D285" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B286" t="s">
+        <v>35</v>
+      </c>
+      <c r="C286" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B287" t="s">
+        <v>35</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288" t="s">
+        <v>34</v>
+      </c>
+      <c r="D288" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B289" t="s">
+        <v>35</v>
+      </c>
+      <c r="C289" t="s">
+        <v>34</v>
+      </c>
+      <c r="D289" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B290" t="s">
+        <v>35</v>
+      </c>
+      <c r="C290" t="s">
+        <v>34</v>
+      </c>
+      <c r="D290" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B291" t="s">
+        <v>35</v>
+      </c>
+      <c r="C291" t="s">
+        <v>34</v>
+      </c>
+      <c r="D291" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B292" t="s">
+        <v>35</v>
+      </c>
+      <c r="C292" t="s">
+        <v>34</v>
+      </c>
+      <c r="D292" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B293" t="s">
+        <v>35</v>
+      </c>
+      <c r="C293" t="s">
+        <v>34</v>
+      </c>
+      <c r="D293" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B294" t="s">
+        <v>35</v>
+      </c>
+      <c r="C294" t="s">
+        <v>34</v>
+      </c>
+      <c r="D294" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B295" t="s">
+        <v>35</v>
+      </c>
+      <c r="C295" t="s">
+        <v>34</v>
+      </c>
+      <c r="D295" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B296" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" t="s">
+        <v>34</v>
+      </c>
+      <c r="D296" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B297" t="s">
+        <v>35</v>
+      </c>
+      <c r="C297" t="s">
+        <v>34</v>
+      </c>
+      <c r="D297" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3128,18 +6224,1104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E117"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5">
+      <c r="A1" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5">
+      <c r="A2" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5">
+      <c r="A3" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75">
+      <c r="A67" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75">
+      <c r="A68" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="17.25">
+      <c r="A76" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17.25">
+      <c r="A77" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="17.25">
+      <c r="A78" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17.25">
+      <c r="A79" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18" thickBot="1">
+      <c r="A80" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" thickBot="1">
+      <c r="A81" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" ht="18" thickBot="1">
+      <c r="A82" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" ht="18" thickBot="1">
+      <c r="A83" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" ht="18" thickBot="1">
+      <c r="A84" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" ht="18" thickBot="1">
+      <c r="A85" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" ht="18" thickBot="1">
+      <c r="A86" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" ht="18" thickBot="1">
+      <c r="A87" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" ht="18" thickBot="1">
+      <c r="A88" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" ht="18" thickBot="1">
+      <c r="A89" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" ht="18" thickBot="1">
+      <c r="A90" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4" ht="18" thickBot="1">
+      <c r="A91" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" ht="18" thickBot="1">
+      <c r="A92" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" ht="18" thickBot="1">
+      <c r="A93" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4" ht="18" thickBot="1">
+      <c r="A94" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4" ht="18" thickBot="1">
+      <c r="A95" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" ht="18" thickBot="1">
+      <c r="A96" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:4" ht="18" thickBot="1">
+      <c r="A97" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="1:4" ht="18" thickBot="1">
+      <c r="A98" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="1:4" ht="18" thickBot="1">
+      <c r="A99" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4" ht="18" thickBot="1">
+      <c r="A100" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="1:4" ht="18" thickBot="1">
+      <c r="A101" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="1:4" ht="18" thickBot="1">
+      <c r="A102" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="1:4" ht="18" thickBot="1">
+      <c r="A103" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4" ht="18" thickBot="1">
+      <c r="A104" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="1:4" ht="18" thickBot="1">
+      <c r="A105" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="1:4" ht="18" thickBot="1">
+      <c r="A106" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4" ht="18" thickBot="1">
+      <c r="A107" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4" ht="18" thickBot="1">
+      <c r="A108" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="1:4" ht="18" thickBot="1">
+      <c r="A109" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="1:4" ht="18" thickBot="1">
+      <c r="A110" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="1:4" ht="18" thickBot="1">
+      <c r="A111" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="1:4" ht="18" thickBot="1">
+      <c r="A112" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" spans="1:4" ht="18" thickBot="1">
+      <c r="A113" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="1:4" ht="18" thickBot="1">
+      <c r="A114" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4" ht="18" thickBot="1">
+      <c r="A115" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:4" ht="18" thickBot="1">
+      <c r="A116" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4" ht="18" thickBot="1">
+      <c r="A117" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4" ht="18" thickBot="1">
+      <c r="A118" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="1:4" ht="18" thickBot="1">
+      <c r="A119" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:4" ht="18" thickBot="1">
+      <c r="A120" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:4" ht="18" thickBot="1">
+      <c r="A121" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="1:4" ht="18" thickBot="1">
+      <c r="A122" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" spans="1:4" ht="18" thickBot="1">
+      <c r="A123" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="1:4" ht="18" thickBot="1">
+      <c r="A124" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" spans="1:4" ht="18" thickBot="1">
+      <c r="A125" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="1:4" ht="18" thickBot="1">
+      <c r="A126" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" spans="1:4" ht="18" thickBot="1">
+      <c r="A127" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="1:4" ht="18" thickBot="1">
+      <c r="A128" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="1:4" ht="18" thickBot="1">
+      <c r="A129" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" ht="18" thickBot="1">
+      <c r="A130" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" ht="18" thickBot="1">
+      <c r="A131" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="1:4" ht="18" thickBot="1">
+      <c r="A132" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="1:4" ht="18" thickBot="1">
+      <c r="A133" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" spans="1:4" ht="18" thickBot="1">
+      <c r="A134" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="1:4" ht="18" thickBot="1">
+      <c r="A135" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4" ht="18" thickBot="1">
+      <c r="A136" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:4" ht="18" thickBot="1">
+      <c r="A137" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" spans="1:4" ht="18" thickBot="1">
+      <c r="A138" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="1:4" ht="18" thickBot="1">
+      <c r="A139" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" spans="1:4" ht="18" thickBot="1">
+      <c r="A140" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" ht="18" thickBot="1">
+      <c r="A141" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" spans="1:4" ht="18" thickBot="1">
+      <c r="A142" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143" spans="1:4" ht="18" thickBot="1">
+      <c r="A143" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4" ht="18" thickBot="1">
+      <c r="A144" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="1:4" ht="18" thickBot="1">
+      <c r="A145" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+    </row>
+    <row r="146" spans="1:4" ht="18" thickBot="1">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+    </row>
+    <row r="147" spans="1:4" ht="18" thickBot="1">
+      <c r="A147" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+    </row>
+    <row r="148" spans="1:4" ht="18" thickBot="1">
+      <c r="A148" t="s">
+        <v>368</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3149,7 +7331,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3165,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3176,7 +7358,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3195,7 +7377,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3206,7 +7388,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3225,7 +7407,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3236,7 +7418,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3255,7 +7437,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3266,7 +7448,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
